--- a/samples/colbert.xlsx
+++ b/samples/colbert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwang/Desktop/repo/VisualDTA/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAA6AEE-32F6-9949-8DC1-9C1E8C162FF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E524264F-EE12-1B4F-94C4-C25D4BD41BE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25740" windowHeight="21100" xr2:uid="{6F71E5C3-8CC6-AE45-8E9C-6448F6E85A50}"/>
   </bookViews>
